--- a/data/trans_camb/P22_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P22_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-2,83</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,49</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,33</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 3,65</t>
+          <t>-8,69; 3,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 3,81</t>
+          <t>-9,14; 3,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 3,99</t>
+          <t>-9,02; 4,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 0,25</t>
+          <t>-0,76; 11,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 1,87</t>
+          <t>0,02; 10,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -0,59</t>
+          <t>-9,42; 0,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 0,49</t>
+          <t>-6,92; 3,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 1,09</t>
+          <t>-9,56; 1,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -0,5</t>
+          <t>-8,26; 2,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 4,68</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,49; 0,41</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 1,24</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,07; 0,58</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,27</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 6,16</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>-6,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,25%</t>
+          <t>-6,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,35%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,21%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,09%</t>
+          <t>-9,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,53%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>-8,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,69%</t>
+          <t>-6,56%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-7,74%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 10,15</t>
+          <t>-20,88; 9,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 10,97</t>
+          <t>-21,97; 9,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 11,45</t>
+          <t>-21,89; 11,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 0,54</t>
+          <t>-1,97; 35,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 4,21</t>
+          <t>-0,17; 32,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,53; -1,25</t>
+          <t>-18,67; 1,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 1,23</t>
+          <t>-13,97; 7,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 2,72</t>
+          <t>-19,35; 3,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,66; -1,27</t>
+          <t>-17,73; 6,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-11,84; 12,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-16,66; 1,01</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 3,1</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-18,08; 1,38</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 13,58</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 16,92</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-5,19</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-8,49</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,83</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 8,17</t>
+          <t>-5,85; 7,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 6,82</t>
+          <t>-6,95; 6,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 7,65</t>
+          <t>-9,08; 4,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 7,3</t>
+          <t>-3,53; 12,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 5,49</t>
+          <t>-5,98; 12,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 13,92</t>
+          <t>-4,7; 7,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,06</t>
+          <t>-6,22; 6,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,46</t>
+          <t>-4,09; 8,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 7,96</t>
+          <t>-13,11; 3,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; 1,32</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 5,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 4,8</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 4,57</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 4,83</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 3,79</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,2%</t>
+          <t>-5,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>-11,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-18,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,32%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-6,55%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 28,18</t>
+          <t>-16,12; 27,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 23,78</t>
+          <t>-19,42; 22,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 25,28</t>
+          <t>-24,75; 17,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 19,33</t>
+          <t>-10,97; 42,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 14,52</t>
+          <t>-17,3; 44,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 36,47</t>
+          <t>-10,39; 19,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 17,9</t>
+          <t>-13,58; 16,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 13,27</t>
+          <t>-9,14; 22,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 23,03</t>
+          <t>-28,59; 8,68</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-34,69; 2,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,93; 15,54</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 13,63</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-11,95; 13,26</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-17,34; 13,88</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-22,28; 10,38</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>8,56</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,85</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-4,9</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-11,62</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,14</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,04</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 9,93</t>
+          <t>-16,71; 10,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 17,25</t>
+          <t>-12,1; 17,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-7,34; 24,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-16,09; 7,65</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 6,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-16,79; 6,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-16,89; 5,94</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-23,47; 1,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; 5,81</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-9,2; 9,96</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 4,12</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 8,71</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-11,6; 9,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>-8,56%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>22,86%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-8,48%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-10,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-10,6%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-11,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-25,17%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-7,76%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-0,33%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-9,67%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-3,28%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,68; 35,72</t>
+          <t>-36,77; 39,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 57,61</t>
+          <t>-25,73; 60,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-19,64; 78,26</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-31,45; 19,29</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 17,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-32,23; 15,97</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-32,38; 14,76</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-44,89; 4,06</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-26,36; 16,59</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-20,09; 28,94</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-27,81; 11,57</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-19,72; 23,41</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-24,8; 26,4</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-2,43</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,38</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,47</t>
+          <t>-5,39; 3,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 3,8</t>
+          <t>-5,06; 3,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 4,02</t>
+          <t>-5,19; 4,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 1,3</t>
+          <t>-0,59; 8,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 1,71</t>
+          <t>-0,53; 9,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 1,87</t>
+          <t>-6,19; 1,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,51</t>
+          <t>-5,34; 2,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,5</t>
+          <t>-6,52; 1,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,66</t>
+          <t>-6,81; 1,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 1,79</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 1,09</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 1,81</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 1,48</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,48; 4,01</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 4,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,13%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,99%</t>
+          <t>-3,75%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-3,72%</t>
+          <t>-5,75%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-5,63%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-4,65%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-3,15%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 10,41</t>
+          <t>-14,07; 9,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 11,62</t>
+          <t>-13,45; 10,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 12,15</t>
+          <t>-13,5; 12,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 3,08</t>
+          <t>-1,49; 27,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 3,93</t>
+          <t>-1,39; 28,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 4,31</t>
+          <t>-12,98; 3,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 3,91</t>
+          <t>-11,34; 4,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 3,97</t>
+          <t>-14,06; 3,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 4,19</t>
+          <t>-15,31; 4,28</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 4,61</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 2,76</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 4,62</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-11,79; 3,79</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 10,73</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 11,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
